--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/123/word_level_predictions_123.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,109 +4501,109 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G179" s="2" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12641,291 +12641,291 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/123/word_level_predictions_123.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4477,133 +4477,133 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Taking</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>Taking</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G179" s="2" t="b">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L179" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12641,291 +12641,291 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
